--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1188"/>
+  <dimension ref="A1:T1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93927,7 +93927,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1170" t="n">
         <v>9</v>
@@ -93960,24 +93960,24 @@
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="N1170" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O1170" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P1170" t="n">
-        <v>16000</v>
+        <v>18556</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1170" t="inlineStr">
@@ -93986,10 +93986,10 @@
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>1067</v>
+        <v>1031</v>
       </c>
       <c r="T1170" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1171">
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1171" t="n">
         <v>9</v>
@@ -94035,7 +94035,7 @@
       </c>
       <c r="K1171" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1171" t="inlineStr">
@@ -94044,16 +94044,16 @@
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="N1171" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O1171" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P1171" t="n">
-        <v>14000</v>
+        <v>11455</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
@@ -94066,7 +94066,7 @@
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>933</v>
+        <v>764</v>
       </c>
       <c r="T1171" t="n">
         <v>15</v>
@@ -94087,7 +94087,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1172" t="n">
         <v>9</v>
@@ -94115,29 +94115,29 @@
       </c>
       <c r="K1172" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1172" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="N1172" t="n">
-        <v>9000</v>
+        <v>220000</v>
       </c>
       <c r="O1172" t="n">
-        <v>9000</v>
+        <v>220000</v>
       </c>
       <c r="P1172" t="n">
-        <v>9000</v>
+        <v>220000</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1172" t="inlineStr">
@@ -94146,10 +94146,10 @@
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="T1172" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1173">
@@ -94167,7 +94167,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1173" t="n">
         <v>9</v>
@@ -94195,29 +94195,29 @@
       </c>
       <c r="K1173" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>Calibre 120</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="N1173" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="O1173" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="P1173" t="n">
-        <v>10000</v>
+        <v>180000</v>
       </c>
       <c r="Q1173" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1173" t="inlineStr">
@@ -94226,10 +94226,10 @@
         </is>
       </c>
       <c r="S1173" t="n">
-        <v>556</v>
+        <v>450</v>
       </c>
       <c r="T1173" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1174">
@@ -94247,7 +94247,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1174" t="n">
         <v>9</v>
@@ -94280,36 +94280,36 @@
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 120</t>
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="N1174" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="O1174" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P1174" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>933</v>
+        <v>889</v>
       </c>
       <c r="T1174" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1175">
@@ -94327,7 +94327,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1175" t="n">
         <v>9</v>
@@ -94360,36 +94360,36 @@
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="N1175" t="n">
-        <v>250000</v>
+        <v>18000</v>
       </c>
       <c r="O1175" t="n">
-        <v>260000</v>
+        <v>19000</v>
       </c>
       <c r="P1175" t="n">
-        <v>254706</v>
+        <v>18667</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>637</v>
+        <v>1037</v>
       </c>
       <c r="T1175" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1176">
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1176" t="n">
         <v>9</v>
@@ -94440,20 +94440,20 @@
       </c>
       <c r="L1176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="N1176" t="n">
         <v>12000</v>
       </c>
       <c r="O1176" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P1176" t="n">
-        <v>12466</v>
+        <v>12000</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
@@ -94462,11 +94462,11 @@
       </c>
       <c r="R1176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>831</v>
+        <v>800</v>
       </c>
       <c r="T1176" t="n">
         <v>15</v>
@@ -94487,7 +94487,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1177" t="n">
         <v>9</v>
@@ -94515,25 +94515,25 @@
       </c>
       <c r="K1177" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>310</v>
+        <v>50</v>
       </c>
       <c r="N1177" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O1177" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P1177" t="n">
-        <v>14403</v>
+        <v>8000</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
@@ -94542,11 +94542,11 @@
       </c>
       <c r="R1177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>960</v>
+        <v>533</v>
       </c>
       <c r="T1177" t="n">
         <v>15</v>
@@ -94567,7 +94567,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1178" t="n">
         <v>9</v>
@@ -94595,25 +94595,25 @@
       </c>
       <c r="K1178" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N1178" t="n">
-        <v>250000</v>
+        <v>180000</v>
       </c>
       <c r="O1178" t="n">
-        <v>260000</v>
+        <v>180000</v>
       </c>
       <c r="P1178" t="n">
-        <v>255000</v>
+        <v>180000</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
@@ -94622,11 +94622,11 @@
       </c>
       <c r="R1178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>638</v>
+        <v>450</v>
       </c>
       <c r="T1178" t="n">
         <v>400</v>
@@ -94647,7 +94647,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1179" t="n">
         <v>9</v>
@@ -94675,41 +94675,41 @@
       </c>
       <c r="K1179" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="N1179" t="n">
-        <v>13000</v>
+        <v>160000</v>
       </c>
       <c r="O1179" t="n">
-        <v>13000</v>
+        <v>160000</v>
       </c>
       <c r="P1179" t="n">
-        <v>13000</v>
+        <v>160000</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>867</v>
+        <v>400</v>
       </c>
       <c r="T1179" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1180">
@@ -94727,7 +94727,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E1180" t="n">
         <v>9</v>
@@ -94755,25 +94755,25 @@
       </c>
       <c r="K1180" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Richared Delicious</t>
         </is>
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="N1180" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O1180" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P1180" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
@@ -94782,11 +94782,11 @@
       </c>
       <c r="R1180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>667</v>
+        <v>1056</v>
       </c>
       <c r="T1180" t="n">
         <v>18</v>
@@ -94807,7 +94807,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E1181" t="n">
         <v>9</v>
@@ -94835,41 +94835,41 @@
       </c>
       <c r="K1181" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1181" t="inlineStr">
         <is>
-          <t>Calibre 100</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>250</v>
+        <v>3</v>
       </c>
       <c r="N1181" t="n">
-        <v>15000</v>
+        <v>250000</v>
       </c>
       <c r="O1181" t="n">
-        <v>15000</v>
+        <v>250000</v>
       </c>
       <c r="P1181" t="n">
-        <v>15000</v>
+        <v>250000</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>833</v>
+        <v>625</v>
       </c>
       <c r="T1181" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1182">
@@ -94887,7 +94887,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E1182" t="n">
         <v>9</v>
@@ -94915,7 +94915,7 @@
       </c>
       <c r="K1182" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1182" t="inlineStr">
@@ -94924,32 +94924,32 @@
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="N1182" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="O1182" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="P1182" t="n">
-        <v>180000</v>
+        <v>12000</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1182" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="T1182" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1183">
@@ -94967,7 +94967,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E1183" t="n">
         <v>9</v>
@@ -94995,25 +94995,25 @@
       </c>
       <c r="K1183" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1183" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N1183" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="O1183" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="P1183" t="n">
-        <v>180000</v>
+        <v>150000</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
@@ -95022,11 +95022,11 @@
       </c>
       <c r="R1183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>450</v>
+        <v>375</v>
       </c>
       <c r="T1183" t="n">
         <v>400</v>
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1184" t="n">
         <v>9</v>
@@ -95075,7 +95075,7 @@
       </c>
       <c r="K1184" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1184" t="inlineStr">
@@ -95084,32 +95084,32 @@
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="N1184" t="n">
-        <v>150000</v>
+        <v>16000</v>
       </c>
       <c r="O1184" t="n">
-        <v>150000</v>
+        <v>16000</v>
       </c>
       <c r="P1184" t="n">
-        <v>150000</v>
+        <v>16000</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>375</v>
+        <v>1067</v>
       </c>
       <c r="T1184" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1185">
@@ -95127,7 +95127,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E1185" t="n">
         <v>9</v>
@@ -95155,41 +95155,41 @@
       </c>
       <c r="K1185" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1185" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="N1185" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O1185" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P1185" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>1000</v>
+        <v>933</v>
       </c>
       <c r="T1185" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1186">
@@ -95207,7 +95207,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E1186" t="n">
         <v>9</v>
@@ -95235,25 +95235,25 @@
       </c>
       <c r="K1186" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c r="N1186" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="O1186" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P1186" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
@@ -95262,11 +95262,11 @@
       </c>
       <c r="R1186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1186" t="n">
-        <v>667</v>
+        <v>600</v>
       </c>
       <c r="T1186" t="n">
         <v>15</v>
@@ -95287,7 +95287,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E1187" t="n">
         <v>9</v>
@@ -95315,41 +95315,41 @@
       </c>
       <c r="K1187" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1187" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 120</t>
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="N1187" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1187" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1187" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1187" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="T1187" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1188">
@@ -95367,68 +95367,1188 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1188" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1188" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1188" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1188" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1188" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1188" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1188" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1188" t="n">
+        <v>125</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>14000</v>
+      </c>
+      <c r="Q1188" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1188" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1188" t="n">
+        <v>933</v>
+      </c>
+      <c r="T1188" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1189" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1189" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1189" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1189" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1189" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1189" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1189" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1189" t="n">
+        <v>17</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>254706</v>
+      </c>
+      <c r="Q1189" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1189" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1189" t="n">
+        <v>637</v>
+      </c>
+      <c r="T1189" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1190" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1190" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1190" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1190" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1190" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1190" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1190" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1190" t="n">
+        <v>290</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>12466</v>
+      </c>
+      <c r="Q1190" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1190" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1190" t="n">
+        <v>831</v>
+      </c>
+      <c r="T1190" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1191" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1191" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1191" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1191" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1191" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1191" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L1191" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1191" t="n">
+        <v>310</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>14403</v>
+      </c>
+      <c r="Q1191" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1191" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1191" t="n">
+        <v>960</v>
+      </c>
+      <c r="T1191" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1192" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1192" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1192" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1192" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1192" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1192" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L1192" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1192" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>255000</v>
+      </c>
+      <c r="Q1192" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1192" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1192" t="n">
+        <v>638</v>
+      </c>
+      <c r="T1192" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1193" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1193" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1193" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1193" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1193" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1193" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L1193" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1193" t="n">
+        <v>110</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q1193" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1193" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1193" t="n">
+        <v>867</v>
+      </c>
+      <c r="T1193" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1194" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1194" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1194" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1194" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1194" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1194" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1194" t="inlineStr">
+        <is>
+          <t>Calibre 90</t>
+        </is>
+      </c>
+      <c r="M1194" t="n">
+        <v>255</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q1194" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R1194" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1194" t="n">
+        <v>667</v>
+      </c>
+      <c r="T1194" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1195" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1195" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1195" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1195" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1195" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1195" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1195" t="inlineStr">
+        <is>
+          <t>Calibre 100</t>
+        </is>
+      </c>
+      <c r="M1195" t="n">
+        <v>250</v>
+      </c>
+      <c r="N1195" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O1195" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P1195" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q1195" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R1195" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1195" t="n">
+        <v>833</v>
+      </c>
+      <c r="T1195" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1196" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1196" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1196" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1196" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1196" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1196" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1196" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1196" t="n">
+        <v>25</v>
+      </c>
+      <c r="N1196" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O1196" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P1196" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q1196" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1196" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1196" t="n">
+        <v>450</v>
+      </c>
+      <c r="T1196" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1197" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1197" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1197" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1197" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1197" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L1197" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1197" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1197" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O1197" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P1197" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q1197" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1197" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1197" t="n">
+        <v>450</v>
+      </c>
+      <c r="T1197" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1198" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1198" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1198" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1198" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1198" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1198" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L1198" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1198" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1198" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O1198" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P1198" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q1198" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1198" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1198" t="n">
+        <v>375</v>
+      </c>
+      <c r="T1198" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1199" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E1188" t="n">
-        <v>9</v>
-      </c>
-      <c r="F1188" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1188" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H1188" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I1188" t="n">
-        <v>100104002</v>
-      </c>
-      <c r="J1188" t="inlineStr">
-        <is>
-          <t>Manzana</t>
-        </is>
-      </c>
-      <c r="K1188" t="inlineStr">
+      <c r="E1199" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1199" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1199" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1199" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1199" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1199" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1199" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M1199" t="n">
+        <v>155</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q1199" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R1199" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1199" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T1199" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1200" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1200" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1200" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1200" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1200" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1200" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1200" t="n">
+        <v>185</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q1200" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1200" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1200" t="n">
+        <v>667</v>
+      </c>
+      <c r="T1200" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1201" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1201" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1201" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1201" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1201" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1201" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1201" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1201" t="n">
+        <v>115</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q1201" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1201" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1201" t="n">
+        <v>800</v>
+      </c>
+      <c r="T1201" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1202" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1202" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1202" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1202" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1202" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1202" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1202" t="inlineStr">
         <is>
           <t>Pink Lady</t>
         </is>
       </c>
-      <c r="L1188" t="inlineStr">
+      <c r="L1202" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1188" t="n">
+      <c r="M1202" t="n">
         <v>85</v>
       </c>
-      <c r="N1188" t="n">
+      <c r="N1202" t="n">
         <v>8000</v>
       </c>
-      <c r="O1188" t="n">
+      <c r="O1202" t="n">
         <v>8000</v>
       </c>
-      <c r="P1188" t="n">
+      <c r="P1202" t="n">
         <v>8000</v>
       </c>
-      <c r="Q1188" t="inlineStr">
+      <c r="Q1202" t="inlineStr">
         <is>
           <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
-      <c r="R1188" t="inlineStr">
+      <c r="R1202" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1188" t="n">
+      <c r="S1202" t="n">
         <v>533</v>
       </c>
-      <c r="T1188" t="n">
+      <c r="T1202" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Manzana.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Modelo de Temuco - Manzana.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1202"/>
+  <dimension ref="A1:T1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E1075" t="n">
         <v>9</v>
@@ -86355,7 +86355,7 @@
       </c>
       <c r="K1075" t="inlineStr">
         <is>
-          <t>Red Delicious</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1075" t="inlineStr">
@@ -86364,16 +86364,16 @@
         </is>
       </c>
       <c r="M1075" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="N1075" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O1075" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P1075" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="Q1075" t="inlineStr">
         <is>
@@ -86382,11 +86382,11 @@
       </c>
       <c r="R1075" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1075" t="n">
-        <v>1056</v>
+        <v>972</v>
       </c>
       <c r="T1075" t="n">
         <v>18</v>
@@ -86407,7 +86407,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E1076" t="n">
         <v>9</v>
@@ -86435,41 +86435,41 @@
       </c>
       <c r="K1076" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1076" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1076" t="n">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="N1076" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O1076" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P1076" t="n">
-        <v>19000</v>
+        <v>11500</v>
       </c>
       <c r="Q1076" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1076" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1076" t="n">
-        <v>1056</v>
+        <v>767</v>
       </c>
       <c r="T1076" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1077">
@@ -86487,7 +86487,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E1077" t="n">
         <v>9</v>
@@ -86520,36 +86520,36 @@
       </c>
       <c r="L1077" t="inlineStr">
         <is>
-          <t>Calibre 100</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1077" t="n">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="N1077" t="n">
-        <v>18000</v>
+        <v>220000</v>
       </c>
       <c r="O1077" t="n">
-        <v>18000</v>
+        <v>220000</v>
       </c>
       <c r="P1077" t="n">
-        <v>18000</v>
+        <v>220000</v>
       </c>
       <c r="Q1077" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1077" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1077" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="T1077" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1078">
@@ -86567,7 +86567,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E1078" t="n">
         <v>9</v>
@@ -86600,36 +86600,36 @@
       </c>
       <c r="L1078" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1078" t="n">
-        <v>380</v>
+        <v>2</v>
       </c>
       <c r="N1078" t="n">
-        <v>19000</v>
+        <v>180000</v>
       </c>
       <c r="O1078" t="n">
-        <v>19000</v>
+        <v>180000</v>
       </c>
       <c r="P1078" t="n">
-        <v>19000</v>
+        <v>180000</v>
       </c>
       <c r="Q1078" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1078" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1078" t="n">
-        <v>1056</v>
+        <v>450</v>
       </c>
       <c r="T1078" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1079">
@@ -86647,7 +86647,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E1079" t="n">
         <v>9</v>
@@ -86675,41 +86675,41 @@
       </c>
       <c r="K1079" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1079" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1079" t="n">
-        <v>265</v>
+        <v>90</v>
       </c>
       <c r="N1079" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O1079" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P1079" t="n">
-        <v>10566</v>
+        <v>18000</v>
       </c>
       <c r="Q1079" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1079" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1079" t="n">
-        <v>704</v>
+        <v>1000</v>
       </c>
       <c r="T1079" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1080">
@@ -86727,7 +86727,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E1080" t="n">
         <v>9</v>
@@ -86760,36 +86760,36 @@
       </c>
       <c r="L1080" t="inlineStr">
         <is>
-          <t>Calibre 100</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1080" t="n">
-        <v>280</v>
+        <v>2</v>
       </c>
       <c r="N1080" t="n">
-        <v>18000</v>
+        <v>180000</v>
       </c>
       <c r="O1080" t="n">
-        <v>18000</v>
+        <v>180000</v>
       </c>
       <c r="P1080" t="n">
-        <v>18000</v>
+        <v>180000</v>
       </c>
       <c r="Q1080" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1080" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1080" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="T1080" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1081">
@@ -86807,7 +86807,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E1081" t="n">
         <v>9</v>
@@ -86835,41 +86835,41 @@
       </c>
       <c r="K1081" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1081" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1081" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="N1081" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O1081" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P1081" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q1081" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1081" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1081" t="n">
-        <v>1111</v>
+        <v>667</v>
       </c>
       <c r="T1081" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1082">
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E1082" t="n">
         <v>9</v>
@@ -86915,7 +86915,7 @@
       </c>
       <c r="K1082" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1082" t="inlineStr">
@@ -86924,32 +86924,32 @@
         </is>
       </c>
       <c r="M1082" t="n">
-        <v>450</v>
+        <v>2</v>
       </c>
       <c r="N1082" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O1082" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P1082" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="Q1082" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1082" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1082" t="n">
-        <v>667</v>
+        <v>375</v>
       </c>
       <c r="T1082" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1083">
@@ -86967,7 +86967,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E1083" t="n">
         <v>9</v>
@@ -86995,41 +86995,41 @@
       </c>
       <c r="K1083" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Richared Delicious</t>
         </is>
       </c>
       <c r="L1083" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1083" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="N1083" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O1083" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P1083" t="n">
-        <v>8000</v>
+        <v>18417</v>
       </c>
       <c r="Q1083" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1083" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1083" t="n">
-        <v>533</v>
+        <v>1023</v>
       </c>
       <c r="T1083" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1084">
@@ -87047,7 +87047,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E1084" t="n">
         <v>9</v>
@@ -87075,41 +87075,41 @@
       </c>
       <c r="K1084" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1084" t="inlineStr">
         <is>
-          <t>Calibre 100</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1084" t="n">
-        <v>285</v>
+        <v>2</v>
       </c>
       <c r="N1084" t="n">
-        <v>18000</v>
+        <v>250000</v>
       </c>
       <c r="O1084" t="n">
-        <v>18000</v>
+        <v>250000</v>
       </c>
       <c r="P1084" t="n">
-        <v>18000</v>
+        <v>250000</v>
       </c>
       <c r="Q1084" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1084" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1084" t="n">
-        <v>1000</v>
+        <v>625</v>
       </c>
       <c r="T1084" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1085">
@@ -87127,7 +87127,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44251</v>
+        <v>44449</v>
       </c>
       <c r="E1085" t="n">
         <v>9</v>
@@ -87155,7 +87155,7 @@
       </c>
       <c r="K1085" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1085" t="inlineStr">
@@ -87164,32 +87164,32 @@
         </is>
       </c>
       <c r="M1085" t="n">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="N1085" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O1085" t="n">
         <v>12000</v>
       </c>
-      <c r="O1085" t="n">
-        <v>14000</v>
-      </c>
       <c r="P1085" t="n">
-        <v>12864</v>
+        <v>11500</v>
       </c>
       <c r="Q1085" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1085" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1085" t="n">
-        <v>715</v>
+        <v>767</v>
       </c>
       <c r="T1085" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1086">
@@ -87207,7 +87207,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44251</v>
+        <v>44449</v>
       </c>
       <c r="E1086" t="n">
         <v>9</v>
@@ -87235,7 +87235,7 @@
       </c>
       <c r="K1086" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1086" t="inlineStr">
@@ -87244,32 +87244,32 @@
         </is>
       </c>
       <c r="M1086" t="n">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="N1086" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="O1086" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="P1086" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="Q1086" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1086" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1086" t="n">
-        <v>556</v>
+        <v>375</v>
       </c>
       <c r="T1086" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1087">
@@ -87287,7 +87287,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E1087" t="n">
         <v>9</v>
@@ -87315,29 +87315,29 @@
       </c>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Red Delicious</t>
         </is>
       </c>
       <c r="L1087" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1087" t="n">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c r="N1087" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O1087" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P1087" t="n">
-        <v>13386</v>
+        <v>19000</v>
       </c>
       <c r="Q1087" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1087" t="inlineStr">
@@ -87346,7 +87346,7 @@
         </is>
       </c>
       <c r="S1087" t="n">
-        <v>744</v>
+        <v>1056</v>
       </c>
       <c r="T1087" t="n">
         <v>18</v>
@@ -87367,7 +87367,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E1088" t="n">
         <v>9</v>
@@ -87395,29 +87395,29 @@
       </c>
       <c r="K1088" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1088" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 90</t>
         </is>
       </c>
       <c r="M1088" t="n">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="N1088" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O1088" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P1088" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="Q1088" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1088" t="inlineStr">
@@ -87426,7 +87426,7 @@
         </is>
       </c>
       <c r="S1088" t="n">
-        <v>556</v>
+        <v>1056</v>
       </c>
       <c r="T1088" t="n">
         <v>18</v>
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E1089" t="n">
         <v>9</v>
@@ -87475,41 +87475,41 @@
       </c>
       <c r="K1089" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1089" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 100</t>
         </is>
       </c>
       <c r="M1089" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="N1089" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O1089" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P1089" t="n">
-        <v>11487</v>
+        <v>18000</v>
       </c>
       <c r="Q1089" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1089" t="inlineStr">
         <is>
-          <t>Provincia de Malleco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1089" t="n">
-        <v>766</v>
+        <v>1000</v>
       </c>
       <c r="T1089" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1090">
@@ -87527,7 +87527,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E1090" t="n">
         <v>9</v>
@@ -87555,41 +87555,41 @@
       </c>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1090" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1090" t="n">
-        <v>25</v>
+        <v>380</v>
       </c>
       <c r="N1090" t="n">
-        <v>150000</v>
+        <v>19000</v>
       </c>
       <c r="O1090" t="n">
-        <v>150000</v>
+        <v>19000</v>
       </c>
       <c r="P1090" t="n">
-        <v>150000</v>
+        <v>19000</v>
       </c>
       <c r="Q1090" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1090" t="inlineStr">
         <is>
-          <t>Provincia de Malleco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1090" t="n">
-        <v>375</v>
+        <v>1056</v>
       </c>
       <c r="T1090" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1091">
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E1091" t="n">
         <v>9</v>
@@ -87635,38 +87635,38 @@
       </c>
       <c r="K1091" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1091" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1091" t="n">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="N1091" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O1091" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P1091" t="n">
-        <v>8000</v>
+        <v>10566</v>
       </c>
       <c r="Q1091" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos empedrada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1091" t="inlineStr">
         <is>
-          <t>Provincia de Malleco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1091" t="n">
-        <v>533</v>
+        <v>704</v>
       </c>
       <c r="T1091" t="n">
         <v>15</v>
@@ -87687,7 +87687,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E1092" t="n">
         <v>9</v>
@@ -87715,41 +87715,41 @@
       </c>
       <c r="K1092" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1092" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 100</t>
         </is>
       </c>
       <c r="M1092" t="n">
-        <v>15</v>
+        <v>280</v>
       </c>
       <c r="N1092" t="n">
-        <v>100000</v>
+        <v>18000</v>
       </c>
       <c r="O1092" t="n">
-        <v>100000</v>
+        <v>18000</v>
       </c>
       <c r="P1092" t="n">
-        <v>100000</v>
+        <v>18000</v>
       </c>
       <c r="Q1092" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
-          <t>Provincia de Malleco</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1092" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="T1092" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1093">
@@ -87767,7 +87767,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E1093" t="n">
         <v>9</v>
@@ -87795,7 +87795,7 @@
       </c>
       <c r="K1093" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1093" t="inlineStr">
@@ -87804,16 +87804,16 @@
         </is>
       </c>
       <c r="M1093" t="n">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="N1093" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O1093" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P1093" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q1093" t="inlineStr">
         <is>
@@ -87822,11 +87822,11 @@
       </c>
       <c r="R1093" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1093" t="n">
-        <v>1056</v>
+        <v>1111</v>
       </c>
       <c r="T1093" t="n">
         <v>18</v>
@@ -87847,7 +87847,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E1094" t="n">
         <v>9</v>
@@ -87875,7 +87875,7 @@
       </c>
       <c r="K1094" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1094" t="inlineStr">
@@ -87884,7 +87884,7 @@
         </is>
       </c>
       <c r="M1094" t="n">
-        <v>55</v>
+        <v>450</v>
       </c>
       <c r="N1094" t="n">
         <v>10000</v>
@@ -87927,7 +87927,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E1095" t="n">
         <v>9</v>
@@ -87955,7 +87955,7 @@
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1095" t="inlineStr">
@@ -87964,16 +87964,16 @@
         </is>
       </c>
       <c r="M1095" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="N1095" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O1095" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P1095" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q1095" t="inlineStr">
         <is>
@@ -87982,11 +87982,11 @@
       </c>
       <c r="R1095" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1095" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T1095" t="n">
         <v>15</v>
@@ -88007,7 +88007,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E1096" t="n">
         <v>9</v>
@@ -88035,7 +88035,7 @@
       </c>
       <c r="K1096" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1096" t="inlineStr">
@@ -88044,16 +88044,16 @@
         </is>
       </c>
       <c r="M1096" t="n">
-        <v>155</v>
+        <v>285</v>
       </c>
       <c r="N1096" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O1096" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P1096" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q1096" t="inlineStr">
         <is>
@@ -88062,11 +88062,11 @@
       </c>
       <c r="R1096" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1096" t="n">
-        <v>1056</v>
+        <v>1000</v>
       </c>
       <c r="T1096" t="n">
         <v>18</v>
@@ -88087,7 +88087,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1097" t="n">
         <v>9</v>
@@ -88115,7 +88115,7 @@
       </c>
       <c r="K1097" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1097" t="inlineStr">
@@ -88124,20 +88124,20 @@
         </is>
       </c>
       <c r="M1097" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="N1097" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O1097" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P1097" t="n">
-        <v>13000</v>
+        <v>12864</v>
       </c>
       <c r="Q1097" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1097" t="inlineStr">
@@ -88146,10 +88146,10 @@
         </is>
       </c>
       <c r="S1097" t="n">
-        <v>867</v>
+        <v>715</v>
       </c>
       <c r="T1097" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1098">
@@ -88167,7 +88167,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1098" t="n">
         <v>9</v>
@@ -88195,16 +88195,16 @@
       </c>
       <c r="K1098" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1098" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1098" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="N1098" t="n">
         <v>10000</v>
@@ -88217,19 +88217,19 @@
       </c>
       <c r="Q1098" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1098" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1098" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="T1098" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1099">
@@ -88247,7 +88247,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1099" t="n">
         <v>9</v>
@@ -88280,36 +88280,36 @@
       </c>
       <c r="L1099" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1099" t="n">
-        <v>95</v>
+        <v>285</v>
       </c>
       <c r="N1099" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O1099" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P1099" t="n">
-        <v>8000</v>
+        <v>13386</v>
       </c>
       <c r="Q1099" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1099" t="n">
-        <v>533</v>
+        <v>744</v>
       </c>
       <c r="T1099" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1100">
@@ -88327,7 +88327,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1100" t="n">
         <v>9</v>
@@ -88355,41 +88355,41 @@
       </c>
       <c r="K1100" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1100" t="n">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="N1100" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O1100" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P1100" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q1100" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1100" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="T1100" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1101">
@@ -88407,7 +88407,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E1101" t="n">
         <v>9</v>
@@ -88435,41 +88435,41 @@
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>Red Delicious</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1101" t="inlineStr">
         <is>
-          <t>Calibre 100</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1101" t="n">
-        <v>115</v>
+        <v>380</v>
       </c>
       <c r="N1101" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="O1101" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P1101" t="n">
-        <v>19000</v>
+        <v>11487</v>
       </c>
       <c r="Q1101" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1101" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Malleco</t>
         </is>
       </c>
       <c r="S1101" t="n">
-        <v>1056</v>
+        <v>766</v>
       </c>
       <c r="T1101" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1102">
@@ -88487,7 +88487,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E1102" t="n">
         <v>9</v>
@@ -88515,41 +88515,41 @@
       </c>
       <c r="K1102" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1102" t="inlineStr">
         <is>
-          <t>Calibre 120</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1102" t="n">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="N1102" t="n">
-        <v>18000</v>
+        <v>150000</v>
       </c>
       <c r="O1102" t="n">
-        <v>18000</v>
+        <v>150000</v>
       </c>
       <c r="P1102" t="n">
-        <v>18000</v>
+        <v>150000</v>
       </c>
       <c r="Q1102" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Malleco</t>
         </is>
       </c>
       <c r="S1102" t="n">
-        <v>1000</v>
+        <v>375</v>
       </c>
       <c r="T1102" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1103">
@@ -88567,7 +88567,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E1103" t="n">
         <v>9</v>
@@ -88595,41 +88595,41 @@
       </c>
       <c r="K1103" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1103" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1103" t="n">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="N1103" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O1103" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P1103" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="Q1103" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos empedrada</t>
         </is>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Malleco</t>
         </is>
       </c>
       <c r="S1103" t="n">
-        <v>1056</v>
+        <v>533</v>
       </c>
       <c r="T1103" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1104">
@@ -88647,7 +88647,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E1104" t="n">
         <v>9</v>
@@ -88675,41 +88675,41 @@
       </c>
       <c r="K1104" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1104" t="n">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="N1104" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="O1104" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="P1104" t="n">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="Q1104" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Malleco</t>
         </is>
       </c>
       <c r="S1104" t="n">
-        <v>667</v>
+        <v>250</v>
       </c>
       <c r="T1104" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1105">
@@ -88727,7 +88727,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1105" t="n">
         <v>9</v>
@@ -88755,25 +88755,25 @@
       </c>
       <c r="K1105" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1105" t="inlineStr">
         <is>
-          <t>Calibre 120</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1105" t="n">
         <v>155</v>
       </c>
       <c r="N1105" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O1105" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P1105" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="Q1105" t="inlineStr">
         <is>
@@ -88782,11 +88782,11 @@
       </c>
       <c r="R1105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1105" t="n">
-        <v>944</v>
+        <v>1056</v>
       </c>
       <c r="T1105" t="n">
         <v>18</v>
@@ -88807,7 +88807,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1106" t="n">
         <v>9</v>
@@ -88835,29 +88835,29 @@
       </c>
       <c r="K1106" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1106" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1106" t="n">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="N1106" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O1106" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P1106" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q1106" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1106" t="inlineStr">
@@ -88866,10 +88866,10 @@
         </is>
       </c>
       <c r="S1106" t="n">
-        <v>1111</v>
+        <v>667</v>
       </c>
       <c r="T1106" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1107">
@@ -88887,7 +88887,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1107" t="n">
         <v>9</v>
@@ -88915,7 +88915,7 @@
       </c>
       <c r="K1107" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1107" t="inlineStr">
@@ -88924,16 +88924,16 @@
         </is>
       </c>
       <c r="M1107" t="n">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="N1107" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="O1107" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P1107" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="Q1107" t="inlineStr">
         <is>
@@ -88942,11 +88942,11 @@
       </c>
       <c r="R1107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1107" t="n">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="T1107" t="n">
         <v>15</v>
@@ -88967,7 +88967,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E1108" t="n">
         <v>9</v>
@@ -88995,41 +88995,41 @@
       </c>
       <c r="K1108" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 100</t>
         </is>
       </c>
       <c r="M1108" t="n">
-        <v>255</v>
+        <v>155</v>
       </c>
       <c r="N1108" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O1108" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P1108" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="Q1108" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1108" t="n">
-        <v>667</v>
+        <v>1056</v>
       </c>
       <c r="T1108" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1109">
@@ -89047,7 +89047,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E1109" t="n">
         <v>9</v>
@@ -89075,29 +89075,29 @@
       </c>
       <c r="K1109" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1109" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1109" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="N1109" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O1109" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P1109" t="n">
-        <v>18375</v>
+        <v>13000</v>
       </c>
       <c r="Q1109" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1109" t="inlineStr">
@@ -89106,10 +89106,10 @@
         </is>
       </c>
       <c r="S1109" t="n">
-        <v>1021</v>
+        <v>867</v>
       </c>
       <c r="T1109" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1110">
@@ -89127,7 +89127,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E1110" t="n">
         <v>9</v>
@@ -89155,29 +89155,29 @@
       </c>
       <c r="K1110" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1110" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1110" t="n">
-        <v>1320</v>
+        <v>125</v>
       </c>
       <c r="N1110" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O1110" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P1110" t="n">
-        <v>18394</v>
+        <v>10000</v>
       </c>
       <c r="Q1110" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1110" t="inlineStr">
@@ -89186,10 +89186,10 @@
         </is>
       </c>
       <c r="S1110" t="n">
-        <v>1022</v>
+        <v>667</v>
       </c>
       <c r="T1110" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1111">
@@ -89207,7 +89207,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E1111" t="n">
         <v>9</v>
@@ -89235,29 +89235,29 @@
       </c>
       <c r="K1111" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1111" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1111" t="n">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="N1111" t="n">
-        <v>240000</v>
+        <v>8000</v>
       </c>
       <c r="O1111" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="P1111" t="n">
-        <v>248889</v>
+        <v>8000</v>
       </c>
       <c r="Q1111" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1111" t="inlineStr">
@@ -89266,10 +89266,10 @@
         </is>
       </c>
       <c r="S1111" t="n">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="T1111" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1112">
@@ -89287,7 +89287,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E1112" t="n">
         <v>9</v>
@@ -89315,7 +89315,7 @@
       </c>
       <c r="K1112" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1112" t="inlineStr">
@@ -89324,16 +89324,16 @@
         </is>
       </c>
       <c r="M1112" t="n">
-        <v>1100</v>
+        <v>125</v>
       </c>
       <c r="N1112" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O1112" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P1112" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q1112" t="inlineStr">
         <is>
@@ -89346,7 +89346,7 @@
         </is>
       </c>
       <c r="S1112" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T1112" t="n">
         <v>15</v>
@@ -89367,7 +89367,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E1113" t="n">
         <v>9</v>
@@ -89395,29 +89395,29 @@
       </c>
       <c r="K1113" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Red Delicious</t>
         </is>
       </c>
       <c r="L1113" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 100</t>
         </is>
       </c>
       <c r="M1113" t="n">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="N1113" t="n">
-        <v>200000</v>
+        <v>19000</v>
       </c>
       <c r="O1113" t="n">
-        <v>200000</v>
+        <v>19000</v>
       </c>
       <c r="P1113" t="n">
-        <v>200000</v>
+        <v>19000</v>
       </c>
       <c r="Q1113" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1113" t="inlineStr">
@@ -89426,10 +89426,10 @@
         </is>
       </c>
       <c r="S1113" t="n">
-        <v>500</v>
+        <v>1056</v>
       </c>
       <c r="T1113" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1114">
@@ -89447,7 +89447,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1114" t="n">
         <v>9</v>
@@ -89480,36 +89480,36 @@
       </c>
       <c r="L1114" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 120</t>
         </is>
       </c>
       <c r="M1114" t="n">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="N1114" t="n">
-        <v>180000</v>
+        <v>18000</v>
       </c>
       <c r="O1114" t="n">
-        <v>180000</v>
+        <v>18000</v>
       </c>
       <c r="P1114" t="n">
-        <v>180000</v>
+        <v>18000</v>
       </c>
       <c r="Q1114" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1114" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1114" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="T1114" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1115">
@@ -89527,7 +89527,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1115" t="n">
         <v>9</v>
@@ -89555,25 +89555,25 @@
       </c>
       <c r="K1115" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1115" t="inlineStr">
         <is>
-          <t>Calibre 120</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1115" t="n">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="N1115" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O1115" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P1115" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q1115" t="inlineStr">
         <is>
@@ -89582,11 +89582,11 @@
       </c>
       <c r="R1115" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1115" t="n">
-        <v>833</v>
+        <v>1056</v>
       </c>
       <c r="T1115" t="n">
         <v>18</v>
@@ -89607,7 +89607,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1116" t="n">
         <v>9</v>
@@ -89635,41 +89635,41 @@
       </c>
       <c r="K1116" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1116" t="inlineStr">
         <is>
-          <t>Calibre 60</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1116" t="n">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="N1116" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O1116" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P1116" t="n">
-        <v>21852</v>
+        <v>10000</v>
       </c>
       <c r="Q1116" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1116" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1116" t="n">
-        <v>1214</v>
+        <v>667</v>
       </c>
       <c r="T1116" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1117">
@@ -89687,7 +89687,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1117" t="n">
         <v>9</v>
@@ -89720,20 +89720,20 @@
       </c>
       <c r="L1117" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Calibre 120</t>
         </is>
       </c>
       <c r="M1117" t="n">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="N1117" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O1117" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P1117" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="Q1117" t="inlineStr">
         <is>
@@ -89742,11 +89742,11 @@
       </c>
       <c r="R1117" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1117" t="n">
-        <v>1222</v>
+        <v>944</v>
       </c>
       <c r="T1117" t="n">
         <v>18</v>
@@ -89767,7 +89767,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1118" t="n">
         <v>9</v>
@@ -89800,20 +89800,20 @@
       </c>
       <c r="L1118" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1118" t="n">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="N1118" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O1118" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P1118" t="n">
-        <v>18333</v>
+        <v>20000</v>
       </c>
       <c r="Q1118" t="inlineStr">
         <is>
@@ -89826,7 +89826,7 @@
         </is>
       </c>
       <c r="S1118" t="n">
-        <v>1018</v>
+        <v>1111</v>
       </c>
       <c r="T1118" t="n">
         <v>18</v>
@@ -89847,7 +89847,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1119" t="n">
         <v>9</v>
@@ -89880,36 +89880,36 @@
       </c>
       <c r="L1119" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1119" t="n">
-        <v>470</v>
+        <v>185</v>
       </c>
       <c r="N1119" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="O1119" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P1119" t="n">
-        <v>18362</v>
+        <v>13000</v>
       </c>
       <c r="Q1119" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1119" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1119" t="n">
-        <v>1020</v>
+        <v>867</v>
       </c>
       <c r="T1119" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1120">
@@ -89927,7 +89927,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E1120" t="n">
         <v>9</v>
@@ -89955,7 +89955,7 @@
       </c>
       <c r="K1120" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1120" t="inlineStr">
@@ -89964,16 +89964,16 @@
         </is>
       </c>
       <c r="M1120" t="n">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="N1120" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1120" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P1120" t="n">
-        <v>12429</v>
+        <v>10000</v>
       </c>
       <c r="Q1120" t="inlineStr">
         <is>
@@ -89986,7 +89986,7 @@
         </is>
       </c>
       <c r="S1120" t="n">
-        <v>829</v>
+        <v>667</v>
       </c>
       <c r="T1120" t="n">
         <v>15</v>
@@ -90035,41 +90035,41 @@
       </c>
       <c r="K1121" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1121" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1121" t="n">
-        <v>420</v>
+        <v>160</v>
       </c>
       <c r="N1121" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O1121" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P1121" t="n">
-        <v>10000</v>
+        <v>18375</v>
       </c>
       <c r="Q1121" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1121" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1121" t="n">
-        <v>667</v>
+        <v>1021</v>
       </c>
       <c r="T1121" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1122">
@@ -90115,29 +90115,29 @@
       </c>
       <c r="K1122" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1122" t="n">
-        <v>400</v>
+        <v>1320</v>
       </c>
       <c r="N1122" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O1122" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P1122" t="n">
-        <v>11000</v>
+        <v>18394</v>
       </c>
       <c r="Q1122" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1122" t="inlineStr">
@@ -90146,7 +90146,7 @@
         </is>
       </c>
       <c r="S1122" t="n">
-        <v>611</v>
+        <v>1022</v>
       </c>
       <c r="T1122" t="n">
         <v>18</v>
@@ -90195,25 +90195,25 @@
       </c>
       <c r="K1123" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1123" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="N1123" t="n">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="O1123" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="P1123" t="n">
-        <v>200000</v>
+        <v>248889</v>
       </c>
       <c r="Q1123" t="inlineStr">
         <is>
@@ -90226,7 +90226,7 @@
         </is>
       </c>
       <c r="S1123" t="n">
-        <v>500</v>
+        <v>622</v>
       </c>
       <c r="T1123" t="n">
         <v>400</v>
@@ -90275,29 +90275,29 @@
       </c>
       <c r="K1124" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1124" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1124" t="n">
-        <v>9</v>
+        <v>1100</v>
       </c>
       <c r="N1124" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="O1124" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="P1124" t="n">
-        <v>180000</v>
+        <v>10000</v>
       </c>
       <c r="Q1124" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1124" t="inlineStr">
@@ -90306,10 +90306,10 @@
         </is>
       </c>
       <c r="S1124" t="n">
-        <v>450</v>
+        <v>667</v>
       </c>
       <c r="T1124" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1125">
@@ -90355,41 +90355,41 @@
       </c>
       <c r="K1125" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1125" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1125" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N1125" t="n">
-        <v>18000</v>
+        <v>200000</v>
       </c>
       <c r="O1125" t="n">
-        <v>18000</v>
+        <v>200000</v>
       </c>
       <c r="P1125" t="n">
-        <v>18000</v>
+        <v>200000</v>
       </c>
       <c r="Q1125" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1125" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="T1125" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1126">
@@ -90435,29 +90435,29 @@
       </c>
       <c r="K1126" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1126" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1126" t="n">
-        <v>570</v>
+        <v>12</v>
       </c>
       <c r="N1126" t="n">
-        <v>18000</v>
+        <v>180000</v>
       </c>
       <c r="O1126" t="n">
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="P1126" t="n">
-        <v>18175</v>
+        <v>180000</v>
       </c>
       <c r="Q1126" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1126" t="inlineStr">
@@ -90466,10 +90466,10 @@
         </is>
       </c>
       <c r="S1126" t="n">
-        <v>1010</v>
+        <v>450</v>
       </c>
       <c r="T1126" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1127">
@@ -90515,29 +90515,29 @@
       </c>
       <c r="K1127" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 120</t>
         </is>
       </c>
       <c r="M1127" t="n">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="N1127" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O1127" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P1127" t="n">
-        <v>8238</v>
+        <v>15000</v>
       </c>
       <c r="Q1127" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1127" t="inlineStr">
@@ -90546,10 +90546,10 @@
         </is>
       </c>
       <c r="S1127" t="n">
-        <v>549</v>
+        <v>833</v>
       </c>
       <c r="T1127" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1128">
@@ -90595,29 +90595,29 @@
       </c>
       <c r="K1128" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 60</t>
         </is>
       </c>
       <c r="M1128" t="n">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="N1128" t="n">
-        <v>140000</v>
+        <v>21000</v>
       </c>
       <c r="O1128" t="n">
-        <v>140000</v>
+        <v>22000</v>
       </c>
       <c r="P1128" t="n">
-        <v>140000</v>
+        <v>21852</v>
       </c>
       <c r="Q1128" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1128" t="inlineStr">
@@ -90626,10 +90626,10 @@
         </is>
       </c>
       <c r="S1128" t="n">
-        <v>350</v>
+        <v>1214</v>
       </c>
       <c r="T1128" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1129">
@@ -90675,29 +90675,29 @@
       </c>
       <c r="K1129" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1129" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N1129" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O1129" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P1129" t="n">
-        <v>7320</v>
+        <v>22000</v>
       </c>
       <c r="Q1129" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1129" t="inlineStr">
@@ -90706,10 +90706,10 @@
         </is>
       </c>
       <c r="S1129" t="n">
-        <v>488</v>
+        <v>1222</v>
       </c>
       <c r="T1129" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1130">
@@ -90755,25 +90755,25 @@
       </c>
       <c r="K1130" t="inlineStr">
         <is>
-          <t>Richared Delicious</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1130" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1130" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N1130" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O1130" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P1130" t="n">
-        <v>20000</v>
+        <v>18333</v>
       </c>
       <c r="Q1130" t="inlineStr">
         <is>
@@ -90782,11 +90782,11 @@
       </c>
       <c r="R1130" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1130" t="n">
-        <v>1111</v>
+        <v>1018</v>
       </c>
       <c r="T1130" t="n">
         <v>18</v>
@@ -90835,7 +90835,7 @@
       </c>
       <c r="K1131" t="inlineStr">
         <is>
-          <t>Richared Delicious</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1131" t="inlineStr">
@@ -90844,16 +90844,16 @@
         </is>
       </c>
       <c r="M1131" t="n">
-        <v>50</v>
+        <v>470</v>
       </c>
       <c r="N1131" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O1131" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P1131" t="n">
-        <v>20000</v>
+        <v>18362</v>
       </c>
       <c r="Q1131" t="inlineStr">
         <is>
@@ -90862,11 +90862,11 @@
       </c>
       <c r="R1131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1131" t="n">
-        <v>1111</v>
+        <v>1020</v>
       </c>
       <c r="T1131" t="n">
         <v>18</v>
@@ -90915,41 +90915,41 @@
       </c>
       <c r="K1132" t="inlineStr">
         <is>
-          <t>Richared Delicious</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1132" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1132" t="n">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c r="N1132" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O1132" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P1132" t="n">
-        <v>19156</v>
+        <v>12429</v>
       </c>
       <c r="Q1132" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1132" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1132" t="n">
-        <v>1064</v>
+        <v>829</v>
       </c>
       <c r="T1132" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1133">
@@ -90995,29 +90995,29 @@
       </c>
       <c r="K1133" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1133" t="n">
-        <v>7</v>
+        <v>420</v>
       </c>
       <c r="N1133" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="O1133" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="P1133" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="Q1133" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1133" t="inlineStr">
@@ -91026,10 +91026,10 @@
         </is>
       </c>
       <c r="S1133" t="n">
-        <v>375</v>
+        <v>667</v>
       </c>
       <c r="T1133" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1134">
@@ -91047,7 +91047,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1134" t="n">
         <v>9</v>
@@ -91075,29 +91075,29 @@
       </c>
       <c r="K1134" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1134" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1134" t="n">
         <v>400</v>
       </c>
       <c r="N1134" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O1134" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P1134" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="Q1134" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 18 kilos granel</t>
         </is>
       </c>
       <c r="R1134" t="inlineStr">
@@ -91106,7 +91106,7 @@
         </is>
       </c>
       <c r="S1134" t="n">
-        <v>1056</v>
+        <v>611</v>
       </c>
       <c r="T1134" t="n">
         <v>18</v>
@@ -91127,7 +91127,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1135" t="n">
         <v>9</v>
@@ -91155,7 +91155,7 @@
       </c>
       <c r="K1135" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1135" t="inlineStr">
@@ -91164,32 +91164,32 @@
         </is>
       </c>
       <c r="M1135" t="n">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="N1135" t="n">
-        <v>7000</v>
+        <v>200000</v>
       </c>
       <c r="O1135" t="n">
-        <v>7000</v>
+        <v>200000</v>
       </c>
       <c r="P1135" t="n">
-        <v>7000</v>
+        <v>200000</v>
       </c>
       <c r="Q1135" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1135" t="inlineStr">
         <is>
-          <t>Provincia de Malleco</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1135" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="T1135" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1136">
@@ -91207,7 +91207,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1136" t="n">
         <v>9</v>
@@ -91235,25 +91235,25 @@
       </c>
       <c r="K1136" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1136" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N1136" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O1136" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="P1136" t="n">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q1136" t="inlineStr">
         <is>
@@ -91262,11 +91262,11 @@
       </c>
       <c r="R1136" t="inlineStr">
         <is>
-          <t>Provincia de Malleco</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1136" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="T1136" t="n">
         <v>400</v>
@@ -91287,7 +91287,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1137" t="n">
         <v>9</v>
@@ -91315,7 +91315,7 @@
       </c>
       <c r="K1137" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1137" t="inlineStr">
@@ -91324,16 +91324,16 @@
         </is>
       </c>
       <c r="M1137" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="N1137" t="n">
         <v>18000</v>
       </c>
       <c r="O1137" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P1137" t="n">
-        <v>18400</v>
+        <v>18000</v>
       </c>
       <c r="Q1137" t="inlineStr">
         <is>
@@ -91342,11 +91342,11 @@
       </c>
       <c r="R1137" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1137" t="n">
-        <v>1022</v>
+        <v>1000</v>
       </c>
       <c r="T1137" t="n">
         <v>18</v>
@@ -91367,7 +91367,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1138" t="n">
         <v>9</v>
@@ -91395,41 +91395,41 @@
       </c>
       <c r="K1138" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1138" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1138" t="n">
-        <v>400</v>
+        <v>570</v>
       </c>
       <c r="N1138" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O1138" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P1138" t="n">
-        <v>12000</v>
+        <v>18175</v>
       </c>
       <c r="Q1138" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1138" t="n">
-        <v>800</v>
+        <v>1010</v>
       </c>
       <c r="T1138" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1139">
@@ -91447,7 +91447,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1139" t="n">
         <v>9</v>
@@ -91484,16 +91484,16 @@
         </is>
       </c>
       <c r="M1139" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="N1139" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O1139" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="P1139" t="n">
-        <v>10000</v>
+        <v>8238</v>
       </c>
       <c r="Q1139" t="inlineStr">
         <is>
@@ -91506,7 +91506,7 @@
         </is>
       </c>
       <c r="S1139" t="n">
-        <v>667</v>
+        <v>549</v>
       </c>
       <c r="T1139" t="n">
         <v>15</v>
@@ -91527,7 +91527,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1140" t="n">
         <v>9</v>
@@ -91555,7 +91555,7 @@
       </c>
       <c r="K1140" t="inlineStr">
         <is>
-          <t>Red Chief</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1140" t="inlineStr">
@@ -91564,32 +91564,32 @@
         </is>
       </c>
       <c r="M1140" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="N1140" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="O1140" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="P1140" t="n">
-        <v>10000</v>
+        <v>140000</v>
       </c>
       <c r="Q1140" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1140" t="inlineStr">
         <is>
-          <t>Provincia de Malleco</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1140" t="n">
-        <v>667</v>
+        <v>350</v>
       </c>
       <c r="T1140" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1141">
@@ -91607,7 +91607,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1141" t="n">
         <v>9</v>
@@ -91635,29 +91635,29 @@
       </c>
       <c r="K1141" t="inlineStr">
         <is>
-          <t>Richared Delicious</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1141" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1141" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N1141" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O1141" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P1141" t="n">
-        <v>18462</v>
+        <v>7320</v>
       </c>
       <c r="Q1141" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1141" t="inlineStr">
@@ -91666,10 +91666,10 @@
         </is>
       </c>
       <c r="S1141" t="n">
-        <v>1026</v>
+        <v>488</v>
       </c>
       <c r="T1141" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1142">
@@ -91687,7 +91687,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1142" t="n">
         <v>9</v>
@@ -91715,41 +91715,41 @@
       </c>
       <c r="K1142" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Richared Delicious</t>
         </is>
       </c>
       <c r="L1142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1142" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N1142" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O1142" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="P1142" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="Q1142" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
-          <t>Provincia de Malleco</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1142" t="n">
-        <v>400</v>
+        <v>1111</v>
       </c>
       <c r="T1142" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1143">
@@ -91767,7 +91767,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1143" t="n">
         <v>9</v>
@@ -91795,41 +91795,41 @@
       </c>
       <c r="K1143" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Richared Delicious</t>
         </is>
       </c>
       <c r="L1143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1143" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="N1143" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="O1143" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P1143" t="n">
-        <v>6400</v>
+        <v>20000</v>
       </c>
       <c r="Q1143" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1143" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1143" t="n">
-        <v>427</v>
+        <v>1111</v>
       </c>
       <c r="T1143" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1144">
@@ -91847,7 +91847,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1144" t="n">
         <v>9</v>
@@ -91875,41 +91875,41 @@
       </c>
       <c r="K1144" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Richared Delicious</t>
         </is>
       </c>
       <c r="L1144" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1144" t="n">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="N1144" t="n">
-        <v>120000</v>
+        <v>18000</v>
       </c>
       <c r="O1144" t="n">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="P1144" t="n">
-        <v>120000</v>
+        <v>19156</v>
       </c>
       <c r="Q1144" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1144" t="inlineStr">
         <is>
-          <t>Provincia de Malleco</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1144" t="n">
-        <v>300</v>
+        <v>1064</v>
       </c>
       <c r="T1144" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1145">
@@ -91927,7 +91927,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E1145" t="n">
         <v>9</v>
@@ -91955,29 +91955,29 @@
       </c>
       <c r="K1145" t="inlineStr">
         <is>
-          <t>Scarlett</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1145" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1145" t="n">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="N1145" t="n">
-        <v>18000</v>
+        <v>150000</v>
       </c>
       <c r="O1145" t="n">
-        <v>19000</v>
+        <v>150000</v>
       </c>
       <c r="P1145" t="n">
-        <v>18500</v>
+        <v>150000</v>
       </c>
       <c r="Q1145" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1145" t="inlineStr">
@@ -91986,10 +91986,10 @@
         </is>
       </c>
       <c r="S1145" t="n">
-        <v>1028</v>
+        <v>375</v>
       </c>
       <c r="T1145" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1146">
@@ -92007,7 +92007,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1146" t="n">
         <v>9</v>
@@ -92040,24 +92040,24 @@
       </c>
       <c r="L1146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1146" t="n">
-        <v>255</v>
+        <v>400</v>
       </c>
       <c r="N1146" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O1146" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P1146" t="n">
-        <v>15569</v>
+        <v>19000</v>
       </c>
       <c r="Q1146" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1146" t="inlineStr">
@@ -92066,10 +92066,10 @@
         </is>
       </c>
       <c r="S1146" t="n">
-        <v>1038</v>
+        <v>1056</v>
       </c>
       <c r="T1146" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1147">
@@ -92087,7 +92087,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1147" t="n">
         <v>9</v>
@@ -92115,7 +92115,7 @@
       </c>
       <c r="K1147" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1147" t="inlineStr">
@@ -92124,16 +92124,16 @@
         </is>
       </c>
       <c r="M1147" t="n">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="N1147" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O1147" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="P1147" t="n">
-        <v>15415</v>
+        <v>7000</v>
       </c>
       <c r="Q1147" t="inlineStr">
         <is>
@@ -92142,11 +92142,11 @@
       </c>
       <c r="R1147" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Malleco</t>
         </is>
       </c>
       <c r="S1147" t="n">
-        <v>1028</v>
+        <v>467</v>
       </c>
       <c r="T1147" t="n">
         <v>15</v>
@@ -92167,7 +92167,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1148" t="n">
         <v>9</v>
@@ -92195,41 +92195,41 @@
       </c>
       <c r="K1148" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1148" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1148" t="n">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="N1148" t="n">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="O1148" t="n">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="P1148" t="n">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="Q1148" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Malleco</t>
         </is>
       </c>
       <c r="S1148" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="T1148" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1149">
@@ -92247,7 +92247,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E1149" t="n">
         <v>9</v>
@@ -92275,29 +92275,29 @@
       </c>
       <c r="K1149" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1149" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1149" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="N1149" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O1149" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P1149" t="n">
-        <v>14000</v>
+        <v>18400</v>
       </c>
       <c r="Q1149" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1149" t="inlineStr">
@@ -92306,10 +92306,10 @@
         </is>
       </c>
       <c r="S1149" t="n">
-        <v>933</v>
+        <v>1022</v>
       </c>
       <c r="T1149" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1150">
@@ -92327,7 +92327,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E1150" t="n">
         <v>9</v>
@@ -92360,36 +92360,36 @@
       </c>
       <c r="L1150" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1150" t="n">
-        <v>215</v>
+        <v>400</v>
       </c>
       <c r="N1150" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O1150" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P1150" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q1150" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1150" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1150" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T1150" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1151">
@@ -92407,7 +92407,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E1151" t="n">
         <v>9</v>
@@ -92435,7 +92435,7 @@
       </c>
       <c r="K1151" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1151" t="inlineStr">
@@ -92444,16 +92444,16 @@
         </is>
       </c>
       <c r="M1151" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N1151" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O1151" t="n">
         <v>10000</v>
       </c>
       <c r="P1151" t="n">
-        <v>9694</v>
+        <v>10000</v>
       </c>
       <c r="Q1151" t="inlineStr">
         <is>
@@ -92466,7 +92466,7 @@
         </is>
       </c>
       <c r="S1151" t="n">
-        <v>646</v>
+        <v>667</v>
       </c>
       <c r="T1151" t="n">
         <v>15</v>
@@ -92487,7 +92487,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E1152" t="n">
         <v>9</v>
@@ -92515,7 +92515,7 @@
       </c>
       <c r="K1152" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Red Chief</t>
         </is>
       </c>
       <c r="L1152" t="inlineStr">
@@ -92524,16 +92524,16 @@
         </is>
       </c>
       <c r="M1152" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N1152" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O1152" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P1152" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q1152" t="inlineStr">
         <is>
@@ -92542,11 +92542,11 @@
       </c>
       <c r="R1152" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Malleco</t>
         </is>
       </c>
       <c r="S1152" t="n">
-        <v>533</v>
+        <v>667</v>
       </c>
       <c r="T1152" t="n">
         <v>15</v>
@@ -92567,7 +92567,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E1153" t="n">
         <v>9</v>
@@ -92595,25 +92595,25 @@
       </c>
       <c r="K1153" t="inlineStr">
         <is>
-          <t>Red Delicious</t>
+          <t>Richared Delicious</t>
         </is>
       </c>
       <c r="L1153" t="inlineStr">
         <is>
-          <t>Calibre 100</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1153" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N1153" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="O1153" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P1153" t="n">
-        <v>16000</v>
+        <v>18462</v>
       </c>
       <c r="Q1153" t="inlineStr">
         <is>
@@ -92626,7 +92626,7 @@
         </is>
       </c>
       <c r="S1153" t="n">
-        <v>889</v>
+        <v>1026</v>
       </c>
       <c r="T1153" t="n">
         <v>18</v>
@@ -92647,7 +92647,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E1154" t="n">
         <v>9</v>
@@ -92675,41 +92675,41 @@
       </c>
       <c r="K1154" t="inlineStr">
         <is>
-          <t>Red Delicious</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1154" t="inlineStr">
         <is>
-          <t>Calibre 70</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1154" t="n">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="N1154" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O1154" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="P1154" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="Q1154" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1154" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Malleco</t>
         </is>
       </c>
       <c r="S1154" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="T1154" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1155">
@@ -92727,7 +92727,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44279</v>
+        <v>44319</v>
       </c>
       <c r="E1155" t="n">
         <v>9</v>
@@ -92755,7 +92755,7 @@
       </c>
       <c r="K1155" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1155" t="inlineStr">
@@ -92764,16 +92764,16 @@
         </is>
       </c>
       <c r="M1155" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N1155" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="O1155" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="P1155" t="n">
-        <v>11000</v>
+        <v>6400</v>
       </c>
       <c r="Q1155" t="inlineStr">
         <is>
@@ -92786,7 +92786,7 @@
         </is>
       </c>
       <c r="S1155" t="n">
-        <v>733</v>
+        <v>427</v>
       </c>
       <c r="T1155" t="n">
         <v>15</v>
@@ -92807,7 +92807,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44279</v>
+        <v>44319</v>
       </c>
       <c r="E1156" t="n">
         <v>9</v>
@@ -92835,41 +92835,41 @@
       </c>
       <c r="K1156" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1156" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1156" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="N1156" t="n">
-        <v>7000</v>
+        <v>120000</v>
       </c>
       <c r="O1156" t="n">
-        <v>7000</v>
+        <v>120000</v>
       </c>
       <c r="P1156" t="n">
-        <v>7000</v>
+        <v>120000</v>
       </c>
       <c r="Q1156" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1156" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Malleco</t>
         </is>
       </c>
       <c r="S1156" t="n">
-        <v>467</v>
+        <v>300</v>
       </c>
       <c r="T1156" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1157">
@@ -92887,7 +92887,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44279</v>
+        <v>44319</v>
       </c>
       <c r="E1157" t="n">
         <v>9</v>
@@ -92915,29 +92915,29 @@
       </c>
       <c r="K1157" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Scarlett</t>
         </is>
       </c>
       <c r="L1157" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1157" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="N1157" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="O1157" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="P1157" t="n">
-        <v>5000</v>
+        <v>18500</v>
       </c>
       <c r="Q1157" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1157" t="inlineStr">
@@ -92946,10 +92946,10 @@
         </is>
       </c>
       <c r="S1157" t="n">
-        <v>333</v>
+        <v>1028</v>
       </c>
       <c r="T1157" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1158">
@@ -92967,7 +92967,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E1158" t="n">
         <v>9</v>
@@ -92995,7 +92995,7 @@
       </c>
       <c r="K1158" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1158" t="inlineStr">
@@ -93004,16 +93004,16 @@
         </is>
       </c>
       <c r="M1158" t="n">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="N1158" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="O1158" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="P1158" t="n">
-        <v>6500</v>
+        <v>15569</v>
       </c>
       <c r="Q1158" t="inlineStr">
         <is>
@@ -93022,11 +93022,11 @@
       </c>
       <c r="R1158" t="inlineStr">
         <is>
-          <t>Provincia de Malleco</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1158" t="n">
-        <v>433</v>
+        <v>1038</v>
       </c>
       <c r="T1158" t="n">
         <v>15</v>
@@ -93047,7 +93047,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E1159" t="n">
         <v>9</v>
@@ -93075,25 +93075,25 @@
       </c>
       <c r="K1159" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1159" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1159" t="n">
-        <v>30</v>
+        <v>265</v>
       </c>
       <c r="N1159" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="O1159" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="P1159" t="n">
-        <v>5000</v>
+        <v>15415</v>
       </c>
       <c r="Q1159" t="inlineStr">
         <is>
@@ -93106,7 +93106,7 @@
         </is>
       </c>
       <c r="S1159" t="n">
-        <v>333</v>
+        <v>1028</v>
       </c>
       <c r="T1159" t="n">
         <v>15</v>
@@ -93127,7 +93127,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44412</v>
+        <v>44175</v>
       </c>
       <c r="E1160" t="n">
         <v>9</v>
@@ -93155,25 +93155,25 @@
       </c>
       <c r="K1160" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1160" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1160" t="n">
         <v>125</v>
       </c>
       <c r="N1160" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="O1160" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P1160" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="Q1160" t="inlineStr">
         <is>
@@ -93182,11 +93182,11 @@
       </c>
       <c r="R1160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1160" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T1160" t="n">
         <v>15</v>
@@ -93207,7 +93207,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44412</v>
+        <v>44175</v>
       </c>
       <c r="E1161" t="n">
         <v>9</v>
@@ -93235,7 +93235,7 @@
       </c>
       <c r="K1161" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1161" t="inlineStr">
@@ -93244,16 +93244,16 @@
         </is>
       </c>
       <c r="M1161" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="N1161" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="O1161" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P1161" t="n">
-        <v>12316</v>
+        <v>14000</v>
       </c>
       <c r="Q1161" t="inlineStr">
         <is>
@@ -93262,11 +93262,11 @@
       </c>
       <c r="R1161" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1161" t="n">
-        <v>821</v>
+        <v>933</v>
       </c>
       <c r="T1161" t="n">
         <v>15</v>
@@ -93287,7 +93287,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E1162" t="n">
         <v>9</v>
@@ -93315,41 +93315,41 @@
       </c>
       <c r="K1162" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1162" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1162" t="n">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="N1162" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O1162" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P1162" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="Q1162" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1162" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="T1162" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1163">
@@ -93367,7 +93367,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44314</v>
+        <v>44376</v>
       </c>
       <c r="E1163" t="n">
         <v>9</v>
@@ -93395,7 +93395,7 @@
       </c>
       <c r="K1163" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1163" t="inlineStr">
@@ -93404,16 +93404,16 @@
         </is>
       </c>
       <c r="M1163" t="n">
-        <v>175</v>
+        <v>360</v>
       </c>
       <c r="N1163" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O1163" t="n">
         <v>10000</v>
       </c>
-      <c r="O1163" t="n">
-        <v>12000</v>
-      </c>
       <c r="P1163" t="n">
-        <v>11086</v>
+        <v>9694</v>
       </c>
       <c r="Q1163" t="inlineStr">
         <is>
@@ -93422,11 +93422,11 @@
       </c>
       <c r="R1163" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1163" t="n">
-        <v>739</v>
+        <v>646</v>
       </c>
       <c r="T1163" t="n">
         <v>15</v>
@@ -93447,7 +93447,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44314</v>
+        <v>44376</v>
       </c>
       <c r="E1164" t="n">
         <v>9</v>
@@ -93475,7 +93475,7 @@
       </c>
       <c r="K1164" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1164" t="inlineStr">
@@ -93484,16 +93484,16 @@
         </is>
       </c>
       <c r="M1164" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="N1164" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O1164" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P1164" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="Q1164" t="inlineStr">
         <is>
@@ -93502,11 +93502,11 @@
       </c>
       <c r="R1164" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1164" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="T1164" t="n">
         <v>15</v>
@@ -93527,7 +93527,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44314</v>
+        <v>44376</v>
       </c>
       <c r="E1165" t="n">
         <v>9</v>
@@ -93555,41 +93555,41 @@
       </c>
       <c r="K1165" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Red Delicious</t>
         </is>
       </c>
       <c r="L1165" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 100</t>
         </is>
       </c>
       <c r="M1165" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="N1165" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O1165" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P1165" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q1165" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1165" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1165" t="n">
-        <v>600</v>
+        <v>889</v>
       </c>
       <c r="T1165" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1166">
@@ -93607,7 +93607,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44314</v>
+        <v>44376</v>
       </c>
       <c r="E1166" t="n">
         <v>9</v>
@@ -93635,29 +93635,29 @@
       </c>
       <c r="K1166" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Red Delicious</t>
         </is>
       </c>
       <c r="L1166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 70</t>
         </is>
       </c>
       <c r="M1166" t="n">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="N1166" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O1166" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P1166" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q1166" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1166" t="inlineStr">
@@ -93666,10 +93666,10 @@
         </is>
       </c>
       <c r="S1166" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="T1166" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1167">
@@ -93687,7 +93687,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E1167" t="n">
         <v>9</v>
@@ -93715,41 +93715,41 @@
       </c>
       <c r="K1167" t="inlineStr">
         <is>
-          <t>Richared Delicious</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1167" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1167" t="n">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="N1167" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O1167" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P1167" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="Q1167" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1167" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1167" t="n">
-        <v>889</v>
+        <v>733</v>
       </c>
       <c r="T1167" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1168">
@@ -93767,7 +93767,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E1168" t="n">
         <v>9</v>
@@ -93795,25 +93795,25 @@
       </c>
       <c r="K1168" t="inlineStr">
         <is>
-          <t>Richared Delicious</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1168" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1168" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="N1168" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O1168" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P1168" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="Q1168" t="inlineStr">
         <is>
@@ -93822,11 +93822,11 @@
       </c>
       <c r="R1168" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1168" t="n">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="T1168" t="n">
         <v>15</v>
@@ -93847,7 +93847,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44314</v>
+        <v>44279</v>
       </c>
       <c r="E1169" t="n">
         <v>9</v>
@@ -93875,25 +93875,25 @@
       </c>
       <c r="K1169" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1169" t="n">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="N1169" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="O1169" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="P1169" t="n">
-        <v>9480</v>
+        <v>5000</v>
       </c>
       <c r="Q1169" t="inlineStr">
         <is>
@@ -93902,11 +93902,11 @@
       </c>
       <c r="R1169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1169" t="n">
-        <v>632</v>
+        <v>333</v>
       </c>
       <c r="T1169" t="n">
         <v>15</v>
@@ -93927,7 +93927,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44448</v>
+        <v>44279</v>
       </c>
       <c r="E1170" t="n">
         <v>9</v>
@@ -93955,41 +93955,41 @@
       </c>
       <c r="K1170" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1170" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1170" t="n">
-        <v>450</v>
+        <v>60</v>
       </c>
       <c r="N1170" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="O1170" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P1170" t="n">
-        <v>18556</v>
+        <v>6500</v>
       </c>
       <c r="Q1170" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1170" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Malleco</t>
         </is>
       </c>
       <c r="S1170" t="n">
-        <v>1031</v>
+        <v>433</v>
       </c>
       <c r="T1170" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1171">
@@ -94007,7 +94007,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44448</v>
+        <v>44279</v>
       </c>
       <c r="E1171" t="n">
         <v>9</v>
@@ -94035,25 +94035,25 @@
       </c>
       <c r="K1171" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1171" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1171" t="n">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="N1171" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="O1171" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="P1171" t="n">
-        <v>11455</v>
+        <v>5000</v>
       </c>
       <c r="Q1171" t="inlineStr">
         <is>
@@ -94066,7 +94066,7 @@
         </is>
       </c>
       <c r="S1171" t="n">
-        <v>764</v>
+        <v>333</v>
       </c>
       <c r="T1171" t="n">
         <v>15</v>
@@ -94087,7 +94087,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E1172" t="n">
         <v>9</v>
@@ -94124,32 +94124,32 @@
         </is>
       </c>
       <c r="M1172" t="n">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="N1172" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="O1172" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="P1172" t="n">
-        <v>220000</v>
+        <v>10000</v>
       </c>
       <c r="Q1172" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1172" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1172" t="n">
-        <v>550</v>
+        <v>667</v>
       </c>
       <c r="T1172" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1173">
@@ -94167,7 +94167,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E1173" t="n">
         <v>9</v>
@@ -94195,41 +94195,41 @@
       </c>
       <c r="K1173" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1173" t="n">
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="N1173" t="n">
-        <v>180000</v>
+        <v>11000</v>
       </c>
       <c r="O1173" t="n">
-        <v>180000</v>
+        <v>13000</v>
       </c>
       <c r="P1173" t="n">
-        <v>180000</v>
+        <v>12316</v>
       </c>
       <c r="Q1173" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1173" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1173" t="n">
-        <v>450</v>
+        <v>821</v>
       </c>
       <c r="T1173" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1174">
@@ -94247,7 +94247,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44448</v>
+        <v>44412</v>
       </c>
       <c r="E1174" t="n">
         <v>9</v>
@@ -94275,41 +94275,41 @@
       </c>
       <c r="K1174" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1174" t="inlineStr">
         <is>
-          <t>Calibre 120</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1174" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="N1174" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="O1174" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P1174" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="Q1174" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1174" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1174" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="T1174" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1175">
@@ -94327,7 +94327,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1175" t="n">
         <v>9</v>
@@ -94355,41 +94355,41 @@
       </c>
       <c r="K1175" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1175" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1175" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="N1175" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O1175" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P1175" t="n">
-        <v>18667</v>
+        <v>11086</v>
       </c>
       <c r="Q1175" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1175" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1175" t="n">
-        <v>1037</v>
+        <v>739</v>
       </c>
       <c r="T1175" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1176">
@@ -94407,7 +94407,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1176" t="n">
         <v>9</v>
@@ -94444,16 +94444,16 @@
         </is>
       </c>
       <c r="M1176" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N1176" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="O1176" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P1176" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="Q1176" t="inlineStr">
         <is>
@@ -94462,11 +94462,11 @@
       </c>
       <c r="R1176" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1176" t="n">
-        <v>800</v>
+        <v>667</v>
       </c>
       <c r="T1176" t="n">
         <v>15</v>
@@ -94487,7 +94487,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1177" t="n">
         <v>9</v>
@@ -94515,25 +94515,25 @@
       </c>
       <c r="K1177" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1177" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N1177" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O1177" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P1177" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q1177" t="inlineStr">
         <is>
@@ -94542,11 +94542,11 @@
       </c>
       <c r="R1177" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1177" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="T1177" t="n">
         <v>15</v>
@@ -94567,7 +94567,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1178" t="n">
         <v>9</v>
@@ -94595,29 +94595,29 @@
       </c>
       <c r="K1178" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1178" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1178" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="N1178" t="n">
-        <v>180000</v>
+        <v>9000</v>
       </c>
       <c r="O1178" t="n">
-        <v>180000</v>
+        <v>9000</v>
       </c>
       <c r="P1178" t="n">
-        <v>180000</v>
+        <v>9000</v>
       </c>
       <c r="Q1178" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1178" t="inlineStr">
@@ -94626,10 +94626,10 @@
         </is>
       </c>
       <c r="S1178" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="T1178" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1179">
@@ -94647,7 +94647,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1179" t="n">
         <v>9</v>
@@ -94675,41 +94675,41 @@
       </c>
       <c r="K1179" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Richared Delicious</t>
         </is>
       </c>
       <c r="L1179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1179" t="n">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="N1179" t="n">
-        <v>160000</v>
+        <v>16000</v>
       </c>
       <c r="O1179" t="n">
-        <v>160000</v>
+        <v>16000</v>
       </c>
       <c r="P1179" t="n">
-        <v>160000</v>
+        <v>16000</v>
       </c>
       <c r="Q1179" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1179" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1179" t="n">
-        <v>400</v>
+        <v>889</v>
       </c>
       <c r="T1179" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1180">
@@ -94727,7 +94727,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1180" t="n">
         <v>9</v>
@@ -94760,36 +94760,36 @@
       </c>
       <c r="L1180" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1180" t="n">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="N1180" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O1180" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="P1180" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="Q1180" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1180" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1180" t="n">
-        <v>1056</v>
+        <v>667</v>
       </c>
       <c r="T1180" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1181">
@@ -94807,7 +94807,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E1181" t="n">
         <v>9</v>
@@ -94840,36 +94840,36 @@
       </c>
       <c r="L1181" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1181" t="n">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="N1181" t="n">
-        <v>250000</v>
+        <v>9000</v>
       </c>
       <c r="O1181" t="n">
-        <v>250000</v>
+        <v>10000</v>
       </c>
       <c r="P1181" t="n">
-        <v>250000</v>
+        <v>9480</v>
       </c>
       <c r="Q1181" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1181" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S1181" t="n">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="T1181" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1182">
@@ -94915,29 +94915,29 @@
       </c>
       <c r="K1182" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1182" t="n">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="N1182" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O1182" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P1182" t="n">
-        <v>12000</v>
+        <v>18556</v>
       </c>
       <c r="Q1182" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1182" t="inlineStr">
@@ -94946,10 +94946,10 @@
         </is>
       </c>
       <c r="S1182" t="n">
-        <v>800</v>
+        <v>1031</v>
       </c>
       <c r="T1182" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1183">
@@ -94995,7 +94995,7 @@
       </c>
       <c r="K1183" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1183" t="inlineStr">
@@ -95004,20 +95004,20 @@
         </is>
       </c>
       <c r="M1183" t="n">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="N1183" t="n">
-        <v>150000</v>
+        <v>11000</v>
       </c>
       <c r="O1183" t="n">
-        <v>150000</v>
+        <v>12000</v>
       </c>
       <c r="P1183" t="n">
-        <v>150000</v>
+        <v>11455</v>
       </c>
       <c r="Q1183" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1183" t="inlineStr">
@@ -95026,10 +95026,10 @@
         </is>
       </c>
       <c r="S1183" t="n">
-        <v>375</v>
+        <v>764</v>
       </c>
       <c r="T1183" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1184">
@@ -95047,7 +95047,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1184" t="n">
         <v>9</v>
@@ -95084,20 +95084,20 @@
         </is>
       </c>
       <c r="M1184" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="N1184" t="n">
-        <v>16000</v>
+        <v>220000</v>
       </c>
       <c r="O1184" t="n">
-        <v>16000</v>
+        <v>220000</v>
       </c>
       <c r="P1184" t="n">
-        <v>16000</v>
+        <v>220000</v>
       </c>
       <c r="Q1184" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1184" t="inlineStr">
@@ -95106,10 +95106,10 @@
         </is>
       </c>
       <c r="S1184" t="n">
-        <v>1067</v>
+        <v>550</v>
       </c>
       <c r="T1184" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1185">
@@ -95127,7 +95127,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1185" t="n">
         <v>9</v>
@@ -95155,29 +95155,29 @@
       </c>
       <c r="K1185" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1185" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="N1185" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="O1185" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="P1185" t="n">
-        <v>14000</v>
+        <v>180000</v>
       </c>
       <c r="Q1185" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1185" t="inlineStr">
@@ -95186,10 +95186,10 @@
         </is>
       </c>
       <c r="S1185" t="n">
-        <v>933</v>
+        <v>450</v>
       </c>
       <c r="T1185" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1186">
@@ -95207,7 +95207,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1186" t="n">
         <v>9</v>
@@ -95240,24 +95240,24 @@
       </c>
       <c r="L1186" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Calibre 120</t>
         </is>
       </c>
       <c r="M1186" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="N1186" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="O1186" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="P1186" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="Q1186" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1186" t="inlineStr">
@@ -95266,10 +95266,10 @@
         </is>
       </c>
       <c r="S1186" t="n">
-        <v>600</v>
+        <v>889</v>
       </c>
       <c r="T1186" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1187">
@@ -95287,7 +95287,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E1187" t="n">
         <v>9</v>
@@ -95315,25 +95315,25 @@
       </c>
       <c r="K1187" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1187" t="inlineStr">
         <is>
-          <t>Calibre 120</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1187" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N1187" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O1187" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P1187" t="n">
-        <v>10000</v>
+        <v>18667</v>
       </c>
       <c r="Q1187" t="inlineStr">
         <is>
@@ -95346,7 +95346,7 @@
         </is>
       </c>
       <c r="S1187" t="n">
-        <v>556</v>
+        <v>1037</v>
       </c>
       <c r="T1187" t="n">
         <v>18</v>
@@ -95367,7 +95367,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1188" t="n">
         <v>9</v>
@@ -95404,16 +95404,16 @@
         </is>
       </c>
       <c r="M1188" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N1188" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O1188" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P1188" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q1188" t="inlineStr">
         <is>
@@ -95422,11 +95422,11 @@
       </c>
       <c r="R1188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1188" t="n">
-        <v>933</v>
+        <v>800</v>
       </c>
       <c r="T1188" t="n">
         <v>15</v>
@@ -95447,7 +95447,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1189" t="n">
         <v>9</v>
@@ -95480,36 +95480,36 @@
       </c>
       <c r="L1189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M1189" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="N1189" t="n">
-        <v>250000</v>
+        <v>8000</v>
       </c>
       <c r="O1189" t="n">
-        <v>260000</v>
+        <v>8000</v>
       </c>
       <c r="P1189" t="n">
-        <v>254706</v>
+        <v>8000</v>
       </c>
       <c r="Q1189" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1189" t="n">
-        <v>637</v>
+        <v>533</v>
       </c>
       <c r="T1189" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1190">
@@ -95527,7 +95527,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1190" t="n">
         <v>9</v>
@@ -95564,32 +95564,32 @@
         </is>
       </c>
       <c r="M1190" t="n">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="N1190" t="n">
-        <v>12000</v>
+        <v>180000</v>
       </c>
       <c r="O1190" t="n">
-        <v>13000</v>
+        <v>180000</v>
       </c>
       <c r="P1190" t="n">
-        <v>12466</v>
+        <v>180000</v>
       </c>
       <c r="Q1190" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1190" t="n">
-        <v>831</v>
+        <v>450</v>
       </c>
       <c r="T1190" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1191">
@@ -95607,7 +95607,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1191" t="n">
         <v>9</v>
@@ -95635,7 +95635,7 @@
       </c>
       <c r="K1191" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Pink Lady</t>
         </is>
       </c>
       <c r="L1191" t="inlineStr">
@@ -95644,32 +95644,32 @@
         </is>
       </c>
       <c r="M1191" t="n">
-        <v>310</v>
+        <v>3</v>
       </c>
       <c r="N1191" t="n">
-        <v>14000</v>
+        <v>160000</v>
       </c>
       <c r="O1191" t="n">
-        <v>15000</v>
+        <v>160000</v>
       </c>
       <c r="P1191" t="n">
-        <v>14403</v>
+        <v>160000</v>
       </c>
       <c r="Q1191" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1191" t="n">
-        <v>960</v>
+        <v>400</v>
       </c>
       <c r="T1191" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1192">
@@ -95687,7 +95687,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1192" t="n">
         <v>9</v>
@@ -95715,41 +95715,41 @@
       </c>
       <c r="K1192" t="inlineStr">
         <is>
-          <t>Royal Gala</t>
+          <t>Richared Delicious</t>
         </is>
       </c>
       <c r="L1192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Calibre 80</t>
         </is>
       </c>
       <c r="M1192" t="n">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="N1192" t="n">
-        <v>250000</v>
+        <v>19000</v>
       </c>
       <c r="O1192" t="n">
-        <v>260000</v>
+        <v>19000</v>
       </c>
       <c r="P1192" t="n">
-        <v>255000</v>
+        <v>19000</v>
       </c>
       <c r="Q1192" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/caja 18 kilos embalada</t>
         </is>
       </c>
       <c r="R1192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1192" t="n">
-        <v>638</v>
+        <v>1056</v>
       </c>
       <c r="T1192" t="n">
-        <v>400</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1193">
@@ -95767,7 +95767,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E1193" t="n">
         <v>9</v>
@@ -95800,36 +95800,36 @@
       </c>
       <c r="L1193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M1193" t="n">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="N1193" t="n">
-        <v>13000</v>
+        <v>250000</v>
       </c>
       <c r="O1193" t="n">
-        <v>13000</v>
+        <v>250000</v>
       </c>
       <c r="P1193" t="n">
-        <v>13000</v>
+        <v>250000</v>
       </c>
       <c r="Q1193" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1193" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1193" t="n">
-        <v>867</v>
+        <v>625</v>
       </c>
       <c r="T1193" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1194">
@@ -95847,7 +95847,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E1194" t="n">
         <v>9</v>
@@ -95875,16 +95875,16 @@
       </c>
       <c r="K1194" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1194" t="inlineStr">
         <is>
-          <t>Calibre 90</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1194" t="n">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="N1194" t="n">
         <v>12000</v>
@@ -95897,19 +95897,19 @@
       </c>
       <c r="Q1194" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1194" t="n">
-        <v>667</v>
+        <v>800</v>
       </c>
       <c r="T1194" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1195">
@@ -95927,7 +95927,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44399</v>
+        <v>44448</v>
       </c>
       <c r="E1195" t="n">
         <v>9</v>
@@ -95955,41 +95955,41 @@
       </c>
       <c r="K1195" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1195" t="inlineStr">
         <is>
-          <t>Calibre 100</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1195" t="n">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="N1195" t="n">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="O1195" t="n">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="P1195" t="n">
-        <v>15000</v>
+        <v>150000</v>
       </c>
       <c r="Q1195" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos embalada</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1195" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1195" t="n">
-        <v>833</v>
+        <v>375</v>
       </c>
       <c r="T1195" t="n">
-        <v>18</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1196">
@@ -96007,7 +96007,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1196" t="n">
         <v>9</v>
@@ -96035,7 +96035,7 @@
       </c>
       <c r="K1196" t="inlineStr">
         <is>
-          <t>Granny Smith</t>
+          <t>Fuji royal</t>
         </is>
       </c>
       <c r="L1196" t="inlineStr">
@@ -96044,32 +96044,32 @@
         </is>
       </c>
       <c r="M1196" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N1196" t="n">
-        <v>180000</v>
+        <v>16000</v>
       </c>
       <c r="O1196" t="n">
-        <v>180000</v>
+        <v>16000</v>
       </c>
       <c r="P1196" t="n">
-        <v>180000</v>
+        <v>16000</v>
       </c>
       <c r="Q1196" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1196" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1196" t="n">
-        <v>450</v>
+        <v>1067</v>
       </c>
       <c r="T1196" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1197">
@@ -96087,7 +96087,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1197" t="n">
         <v>9</v>
@@ -96115,41 +96115,41 @@
       </c>
       <c r="K1197" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1197" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M1197" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="N1197" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="O1197" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="P1197" t="n">
-        <v>180000</v>
+        <v>14000</v>
       </c>
       <c r="Q1197" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1197" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1197" t="n">
-        <v>450</v>
+        <v>933</v>
       </c>
       <c r="T1197" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1198">
@@ -96167,7 +96167,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E1198" t="n">
         <v>9</v>
@@ -96195,41 +96195,41 @@
       </c>
       <c r="K1198" t="inlineStr">
         <is>
-          <t>Pink Lady</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M1198" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="N1198" t="n">
-        <v>150000</v>
+        <v>9000</v>
       </c>
       <c r="O1198" t="n">
-        <v>150000</v>
+        <v>9000</v>
       </c>
       <c r="P1198" t="n">
-        <v>150000</v>
+        <v>9000</v>
       </c>
       <c r="Q1198" t="inlineStr">
         <is>
-          <t>$/bins (400 kilos)</t>
+          <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
       <c r="R1198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1198" t="n">
-        <v>375</v>
+        <v>600</v>
       </c>
       <c r="T1198" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1199">
@@ -96247,7 +96247,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44400</v>
+        <v>44167</v>
       </c>
       <c r="E1199" t="n">
         <v>9</v>
@@ -96275,25 +96275,25 @@
       </c>
       <c r="K1199" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Royal Gala</t>
         </is>
       </c>
       <c r="L1199" t="inlineStr">
         <is>
-          <t>Calibre 80</t>
+          <t>Calibre 120</t>
         </is>
       </c>
       <c r="M1199" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="N1199" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O1199" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P1199" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="Q1199" t="inlineStr">
         <is>
@@ -96302,11 +96302,11 @@
       </c>
       <c r="R1199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="S1199" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="T1199" t="n">
         <v>18</v>
@@ -96327,7 +96327,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1200" t="n">
         <v>9</v>
@@ -96355,7 +96355,7 @@
       </c>
       <c r="K1200" t="inlineStr">
         <is>
-          <t>Fuji royal</t>
+          <t>Granny Smith</t>
         </is>
       </c>
       <c r="L1200" t="inlineStr">
@@ -96364,16 +96364,16 @@
         </is>
       </c>
       <c r="M1200" t="n">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="N1200" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O1200" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P1200" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="Q1200" t="inlineStr">
         <is>
@@ -96386,7 +96386,7 @@
         </is>
       </c>
       <c r="S1200" t="n">
-        <v>667</v>
+        <v>933</v>
       </c>
       <c r="T1200" t="n">
         <v>15</v>
@@ -96407,7 +96407,7 @@
         </is>
       </c>
       <c r="D1201" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E1201" t="n">
         <v>9</v>
@@ -96444,20 +96444,20 @@
         </is>
       </c>
       <c r="M1201" t="n">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="N1201" t="n">
-        <v>12000</v>
+        <v>250000</v>
       </c>
       <c r="O1201" t="n">
-        <v>12000</v>
+        <v>260000</v>
       </c>
       <c r="P1201" t="n">
-        <v>12000</v>
+        <v>254706</v>
       </c>
       <c r="Q1201" t="inlineStr">
         <is>
-          <t>$/bandeja 15 kilos granel</t>
+          <t>$/bins (400 kilos)</t>
         </is>
       </c>
       <c r="R1201" t="inlineStr">
@@ -96466,10 +96466,10 @@
         </is>
       </c>
       <c r="S1201" t="n">
-        <v>800</v>
+        <v>637</v>
       </c>
       <c r="T1201" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1202">
@@ -96487,68 +96487,1028 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1202" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1202" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1202" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1202" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1202" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1202" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1202" t="n">
+        <v>290</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>12466</v>
+      </c>
+      <c r="Q1202" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1202" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1202" t="n">
+        <v>831</v>
+      </c>
+      <c r="T1202" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1203" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1203" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1203" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1203" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1203" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1203" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L1203" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1203" t="n">
+        <v>310</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>14403</v>
+      </c>
+      <c r="Q1203" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1203" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1203" t="n">
+        <v>960</v>
+      </c>
+      <c r="T1203" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1204" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1204" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1204" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1204" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1204" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1204" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L1204" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1204" t="n">
+        <v>16</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>250000</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>260000</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>255000</v>
+      </c>
+      <c r="Q1204" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1204" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1204" t="n">
+        <v>638</v>
+      </c>
+      <c r="T1204" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1205" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1205" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1205" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1205" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1205" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1205" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>Royal Gala</t>
+        </is>
+      </c>
+      <c r="L1205" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M1205" t="n">
+        <v>110</v>
+      </c>
+      <c r="N1205" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O1205" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P1205" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q1205" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1205" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1205" t="n">
+        <v>867</v>
+      </c>
+      <c r="T1205" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1206" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1206" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1206" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1206" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1206" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1206" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1206" t="inlineStr">
+        <is>
+          <t>Calibre 90</t>
+        </is>
+      </c>
+      <c r="M1206" t="n">
+        <v>255</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q1206" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R1206" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1206" t="n">
+        <v>667</v>
+      </c>
+      <c r="T1206" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1207" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1207" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1207" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1207" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1207" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1207" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1207" t="inlineStr">
+        <is>
+          <t>Calibre 100</t>
+        </is>
+      </c>
+      <c r="M1207" t="n">
+        <v>250</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q1207" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R1207" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1207" t="n">
+        <v>833</v>
+      </c>
+      <c r="T1207" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1208" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1208" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1208" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1208" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1208" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1208" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1208" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1208" t="n">
+        <v>25</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q1208" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1208" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1208" t="n">
+        <v>450</v>
+      </c>
+      <c r="T1208" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1209" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1209" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1209" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1209" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1209" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1209" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L1209" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M1209" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>180000</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>180000</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>180000</v>
+      </c>
+      <c r="Q1209" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1209" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1209" t="n">
+        <v>450</v>
+      </c>
+      <c r="T1209" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1210" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1210" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1210" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1210" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1210" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1210" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>Pink Lady</t>
+        </is>
+      </c>
+      <c r="L1210" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1210" t="n">
+        <v>8</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>150000</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>150000</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>150000</v>
+      </c>
+      <c r="Q1210" t="inlineStr">
+        <is>
+          <t>$/bins (400 kilos)</t>
+        </is>
+      </c>
+      <c r="R1210" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1210" t="n">
+        <v>375</v>
+      </c>
+      <c r="T1210" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1211" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E1202" t="n">
-        <v>9</v>
-      </c>
-      <c r="F1202" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G1202" t="n">
-        <v>100104</v>
-      </c>
-      <c r="H1202" t="inlineStr">
-        <is>
-          <t>Frutos de pepita</t>
-        </is>
-      </c>
-      <c r="I1202" t="n">
-        <v>100104002</v>
-      </c>
-      <c r="J1202" t="inlineStr">
-        <is>
-          <t>Manzana</t>
-        </is>
-      </c>
-      <c r="K1202" t="inlineStr">
+      <c r="E1211" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1211" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1211" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1211" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1211" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1211" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1211" t="inlineStr">
+        <is>
+          <t>Calibre 80</t>
+        </is>
+      </c>
+      <c r="M1211" t="n">
+        <v>155</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>18000</v>
+      </c>
+      <c r="Q1211" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos embalada</t>
+        </is>
+      </c>
+      <c r="R1211" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1211" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T1211" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1212" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1212" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1212" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1212" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1212" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1212" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>Fuji royal</t>
+        </is>
+      </c>
+      <c r="L1212" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1212" t="n">
+        <v>185</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q1212" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1212" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1212" t="n">
+        <v>667</v>
+      </c>
+      <c r="T1212" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1213" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1213" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1213" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1213" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1213" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1213" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>Granny Smith</t>
+        </is>
+      </c>
+      <c r="L1213" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M1213" t="n">
+        <v>115</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q1213" t="inlineStr">
+        <is>
+          <t>$/bandeja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R1213" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S1213" t="n">
+        <v>800</v>
+      </c>
+      <c r="T1213" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1214" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1214" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G1214" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H1214" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I1214" t="n">
+        <v>100104002</v>
+      </c>
+      <c r="J1214" t="inlineStr">
+        <is>
+          <t>Manzana</t>
+        </is>
+      </c>
+      <c r="K1214" t="inlineStr">
         <is>
           <t>Pink Lady</t>
         </is>
       </c>
-      <c r="L1202" t="inlineStr">
+      <c r="L1214" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M1202" t="n">
+      <c r="M1214" t="n">
         <v>85</v>
       </c>
-      <c r="N1202" t="n">
+      <c r="N1214" t="n">
         <v>8000</v>
       </c>
-      <c r="O1202" t="n">
+      <c r="O1214" t="n">
         <v>8000</v>
       </c>
-      <c r="P1202" t="n">
+      <c r="P1214" t="n">
         <v>8000</v>
       </c>
-      <c r="Q1202" t="inlineStr">
+      <c r="Q1214" t="inlineStr">
         <is>
           <t>$/bandeja 15 kilos granel</t>
         </is>
       </c>
-      <c r="R1202" t="inlineStr">
+      <c r="R1214" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S1202" t="n">
+      <c r="S1214" t="n">
         <v>533</v>
       </c>
-      <c r="T1202" t="n">
+      <c r="T1214" t="n">
         <v>15</v>
       </c>
     </row>
